--- a/src/main/resources/downloadtemp/预算2016模板.xlsx
+++ b/src/main/resources/downloadtemp/预算2016模板.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10068"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="12636"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,54 +19,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>支出</t>
-  </si>
-  <si>
-    <t>一级序号</t>
-  </si>
-  <si>
-    <t>开支范围（业务事项）</t>
-  </si>
-  <si>
-    <t>经济业务分类</t>
-  </si>
-  <si>
-    <t>项目筹措资金</t>
-  </si>
-  <si>
-    <t>咨询费</t>
-  </si>
-  <si>
-    <t>合计</t>
-  </si>
-  <si>
-    <t>占项目预算总额比(%)</t>
-  </si>
-  <si>
-    <t>t.name</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{fe:valList t.no</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.free</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.total</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.money</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <r>
-      <t>{{majorName}}</t>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="华文中宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这里改为你的专业名称</t>
     </r>
     <r>
       <rPr>
@@ -79,14 +43,183 @@
       </rPr>
       <t>教学资源库项目预算        单位：万元</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出</t>
+  </si>
+  <si>
+    <t>项目
+预算
+总额</t>
+  </si>
+  <si>
+    <t>收入</t>
+  </si>
+  <si>
+    <t>一级序号</t>
+  </si>
+  <si>
+    <t>开支范围（业务事项）</t>
+  </si>
+  <si>
+    <t>经济业务分类</t>
+  </si>
+  <si>
+    <t>申请部本专项</t>
+  </si>
+  <si>
+    <t>项目筹措资金</t>
+  </si>
+  <si>
+    <t>咨询费</t>
+  </si>
+  <si>
+    <t>印刷费</t>
+  </si>
+  <si>
+    <t>差旅费</t>
+  </si>
+  <si>
+    <t>会议费</t>
+  </si>
+  <si>
+    <t>培训费</t>
+  </si>
+  <si>
+    <t>专用材料费</t>
+  </si>
+  <si>
+    <t>委托业务费</t>
+  </si>
+  <si>
+    <t>其他商品和服务支出</t>
+  </si>
+  <si>
+    <t>专用设备购置费</t>
+  </si>
+  <si>
+    <t>信息网络及软件购置更新</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <t>占项目预算总额比(%)</t>
+  </si>
+  <si>
+    <t>其中</t>
+  </si>
+  <si>
+    <t>举办方或地方财政投入资金</t>
+  </si>
+  <si>
+    <t>行业企业支持资金</t>
+  </si>
+  <si>
+    <t>相关院校自筹资金</t>
+  </si>
+  <si>
+    <t>1．素材制作</t>
+  </si>
+  <si>
+    <t>1.1 视频类素材</t>
+  </si>
+  <si>
+    <t>1.2 动画类素材</t>
+  </si>
+  <si>
+    <t>1.3微课</t>
+  </si>
+  <si>
+    <t>1.4数字化教材</t>
+  </si>
+  <si>
+    <t>2．企业案例收集制作</t>
+  </si>
+  <si>
+    <t>2.1 史料收集</t>
+  </si>
+  <si>
+    <t>2.2 样品实物收集</t>
+  </si>
+  <si>
+    <t>2.3非遗传人专访</t>
+  </si>
+  <si>
+    <t>2.4 视频资料收集</t>
+  </si>
+  <si>
+    <t>3．课程开发</t>
+  </si>
+  <si>
+    <t>3.1 课程体系构建</t>
+  </si>
+  <si>
+    <t>3.2 课程建设</t>
+  </si>
+  <si>
+    <t>3.3教学实施</t>
+  </si>
+  <si>
+    <t>4．特殊工具软件制作</t>
+  </si>
+  <si>
+    <t>4.1 信息化设备</t>
+  </si>
+  <si>
+    <t>4.2 品牌授权</t>
+  </si>
+  <si>
+    <t>5．应用推广</t>
+  </si>
+  <si>
+    <t>5.1共享机制</t>
+  </si>
+  <si>
+    <t>5.2维护更新</t>
+  </si>
+  <si>
+    <t>6．调研论证</t>
+  </si>
+  <si>
+    <t>6.1项目调研</t>
+  </si>
+  <si>
+    <t>6.2专家论证</t>
+  </si>
+  <si>
+    <t>6.3专家指导</t>
+  </si>
+  <si>
+    <t>7．其他</t>
+  </si>
+  <si>
+    <t>7.1平台维护</t>
+  </si>
+  <si>
+    <t>7.2资源导入</t>
+  </si>
+  <si>
+    <t>填写说明：</t>
+  </si>
+  <si>
+    <t>1.必须在“一级序号”列中填写数字1-7</t>
+  </si>
+  <si>
+    <t>2.不可破坏表结构：不可添加和删除列，不可删除和修改表头（第1-5行的内容）。</t>
+  </si>
+  <si>
+    <t>3.可为单元格设置公式以方便计算。</t>
+  </si>
+  <si>
+    <t>4.每个项目要有3个预算，分别是：总预算、第1年度预算、第2年度预算。3个预算3个文件，都以此为模板填写数据。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,12 +258,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="仿宋_GB2312"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="仿宋_GB2312"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="仿宋_GB2312"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7.5"/>
+      <color theme="1"/>
+      <name val="仿宋_GB2312"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="5.5"/>
+      <color theme="1"/>
+      <name val="仿宋_GB2312"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6.5"/>
+      <color theme="1"/>
+      <name val="仿宋_GB2312"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -148,7 +336,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -208,6 +396,15 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -216,6 +413,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -249,7 +457,74 @@
       <top style="medium">
         <color auto="1"/>
       </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -258,53 +533,137 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -582,116 +941,1283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:20" ht="21.75" customHeight="1">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="21"/>
+    </row>
+    <row r="2" spans="1:20" ht="15" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="24"/>
+    </row>
+    <row r="3" spans="1:20" ht="34.049999999999997" customHeight="1">
+      <c r="A3" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="27"/>
+      <c r="P3" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="27"/>
+    </row>
+    <row r="4" spans="1:20" ht="24" customHeight="1">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="1"/>
-      <c r="B2" s="10" t="s">
+      <c r="H4" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="31"/>
+      <c r="N4" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="29"/>
+      <c r="T4" s="30"/>
+    </row>
+    <row r="5" spans="1:20" ht="32.4">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="5">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5">
+        <v>14</v>
+      </c>
+      <c r="E6" s="5">
+        <v>46</v>
+      </c>
+      <c r="F6" s="5">
+        <v>26</v>
+      </c>
+      <c r="G6" s="5">
+        <v>15</v>
+      </c>
+      <c r="H6" s="5">
+        <v>278</v>
+      </c>
+      <c r="I6" s="5">
+        <v>174</v>
+      </c>
+      <c r="J6" s="5">
+        <v>117</v>
+      </c>
+      <c r="K6" s="5">
+        <v>515</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5">
+        <v>1200</v>
+      </c>
+      <c r="N6" s="5">
+        <v>650</v>
+      </c>
+      <c r="O6" s="13">
+        <v>54.2</v>
+      </c>
+      <c r="P6" s="7">
+        <v>550</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>45.8</v>
+      </c>
+      <c r="R6" s="7">
+        <v>275</v>
+      </c>
+      <c r="S6" s="2"/>
+      <c r="T6" s="7">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="32">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7">
+        <v>96</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7">
+        <v>96</v>
+      </c>
+      <c r="N7" s="7">
+        <v>96</v>
+      </c>
+      <c r="O7" s="39">
+        <v>8</v>
+      </c>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="33"/>
+      <c r="B8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
+        <v>25</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2">
+        <v>25</v>
+      </c>
+      <c r="N8" s="2">
+        <v>25</v>
+      </c>
+      <c r="O8" s="39"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="33"/>
+      <c r="B9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2">
+        <v>60</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="14">
+        <v>60</v>
+      </c>
+      <c r="N9" s="2">
+        <v>60</v>
+      </c>
+      <c r="O9" s="39"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="33"/>
+      <c r="B10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2">
+        <v>6</v>
+      </c>
+      <c r="N10" s="2">
+        <v>6</v>
+      </c>
+      <c r="O10" s="39"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="34"/>
+      <c r="B11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2">
+        <v>5</v>
+      </c>
+      <c r="N11" s="2">
+        <v>5</v>
+      </c>
+      <c r="O11" s="39"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="32">
+        <v>2</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7">
+        <v>7</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7">
+        <v>107</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7">
+        <v>10</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7">
+        <v>124</v>
+      </c>
+      <c r="N12" s="7">
+        <v>124</v>
+      </c>
+      <c r="O12" s="40">
+        <v>10.33</v>
+      </c>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="33"/>
+      <c r="B13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2">
+        <v>9</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2">
+        <v>9</v>
+      </c>
+      <c r="N13" s="2">
+        <v>9</v>
+      </c>
+      <c r="O13" s="40"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="33"/>
+      <c r="B14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2">
+        <v>90</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2">
+        <v>5</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2">
+        <v>97</v>
+      </c>
+      <c r="N14" s="2">
+        <v>97</v>
+      </c>
+      <c r="O14" s="40"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="33"/>
+      <c r="B15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2">
+        <v>5</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2">
+        <v>5</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2">
+        <v>10</v>
+      </c>
+      <c r="N15" s="2">
+        <v>10</v>
+      </c>
+      <c r="O15" s="40"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="34"/>
+      <c r="B16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2">
+        <v>8</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2">
+        <v>8</v>
+      </c>
+      <c r="N16" s="2">
+        <v>8</v>
+      </c>
+      <c r="O16" s="40"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="32">
+        <v>3</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5">
+        <v>14</v>
+      </c>
+      <c r="E17" s="5">
+        <v>30</v>
+      </c>
+      <c r="F17" s="5">
+        <v>20</v>
+      </c>
+      <c r="G17" s="5">
+        <v>10</v>
+      </c>
+      <c r="H17" s="5">
+        <v>70</v>
+      </c>
+      <c r="I17" s="5">
+        <v>174</v>
+      </c>
+      <c r="J17" s="5">
+        <v>80</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5">
+        <v>400</v>
+      </c>
+      <c r="N17" s="5">
+        <v>393</v>
+      </c>
+      <c r="O17" s="40">
+        <v>32.75</v>
+      </c>
+      <c r="P17" s="7">
+        <v>7</v>
+      </c>
+      <c r="Q17" s="42">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="21.6">
+      <c r="A18" s="33"/>
+      <c r="B18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="10">
+        <v>2</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10">
+        <v>20</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="5">
+        <v>22</v>
+      </c>
+      <c r="N18" s="10">
+        <v>20</v>
+      </c>
+      <c r="O18" s="40"/>
+      <c r="P18" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="33"/>
+      <c r="B19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10">
+        <v>14</v>
+      </c>
+      <c r="E19" s="10">
+        <v>10</v>
+      </c>
+      <c r="F19" s="10">
+        <v>20</v>
+      </c>
+      <c r="G19" s="10">
+        <v>10</v>
+      </c>
+      <c r="H19" s="10">
+        <v>60</v>
+      </c>
+      <c r="I19" s="10">
+        <v>174</v>
+      </c>
+      <c r="J19" s="10">
+        <v>80</v>
+      </c>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="5">
+        <v>368</v>
+      </c>
+      <c r="N19" s="10">
+        <v>363</v>
+      </c>
+      <c r="O19" s="40"/>
+      <c r="P19" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="34"/>
+      <c r="B20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10">
+        <v>10</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="5">
+        <v>10</v>
+      </c>
+      <c r="N20" s="10">
+        <v>10</v>
+      </c>
+      <c r="O20" s="40"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="32">
+        <v>4</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5">
+        <v>5</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5">
+        <v>515</v>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5">
+        <v>520</v>
+      </c>
+      <c r="N21" s="5">
+        <v>20</v>
+      </c>
+      <c r="O21" s="40">
+        <v>1.67</v>
+      </c>
+      <c r="P21" s="7">
+        <v>500</v>
+      </c>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7">
+        <v>245</v>
+      </c>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="33"/>
+      <c r="B22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="10">
+        <v>5</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10">
+        <v>495</v>
+      </c>
+      <c r="L22" s="10"/>
+      <c r="M22" s="15">
+        <v>500</v>
+      </c>
+      <c r="N22" s="10">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" ht="34.049999999999997" customHeight="1" thickBot="1">
-      <c r="A3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="O22" s="40"/>
+      <c r="P22" s="2">
+        <v>500</v>
+      </c>
+      <c r="Q22" s="42">
+        <v>41.67</v>
+      </c>
+      <c r="R22" s="2">
+        <v>245</v>
+      </c>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="33"/>
+      <c r="B23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2">
+        <v>20</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2">
+        <v>20</v>
+      </c>
+      <c r="N23" s="16">
+        <v>20</v>
+      </c>
+      <c r="O23" s="40"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="34"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="32">
+        <v>5</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11">
+        <v>4</v>
+      </c>
+      <c r="F25" s="11">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="2" t="s">
+      <c r="G25" s="11">
+        <v>5</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11">
+        <v>2</v>
+      </c>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11">
+        <v>13</v>
+      </c>
+      <c r="N25" s="11">
+        <v>13</v>
+      </c>
+      <c r="O25" s="41">
+        <v>1.08</v>
+      </c>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="33"/>
+      <c r="B26" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="24" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13" t="s">
+      <c r="F26" s="2">
+        <v>2</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2">
+        <v>6</v>
+      </c>
+      <c r="N26" s="2">
+        <v>6</v>
+      </c>
+      <c r="O26" s="41"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="34"/>
+      <c r="B27" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2">
         <v>5</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2">
+        <v>2</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2">
         <v>7</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="N27" s="2">
+        <v>7</v>
+      </c>
+      <c r="O27" s="41"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="32">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B28" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="7">
+        <v>13</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7">
+        <v>4</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7">
+        <v>17</v>
+      </c>
+      <c r="N28" s="7">
+        <v>4</v>
+      </c>
+      <c r="O28" s="42">
+        <v>0.3</v>
+      </c>
+      <c r="P28" s="7">
+        <v>13</v>
+      </c>
+      <c r="Q28" s="42">
+        <v>1.08</v>
+      </c>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="33"/>
+      <c r="B29" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2">
+        <v>2</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2">
+        <v>4</v>
+      </c>
+      <c r="N29" s="2">
+        <v>2</v>
+      </c>
+      <c r="O29" s="42"/>
+      <c r="P29" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="33"/>
+      <c r="B30" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="2">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2">
+        <v>2</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2">
+        <v>7</v>
+      </c>
+      <c r="N30" s="2">
+        <v>2</v>
+      </c>
+      <c r="O30" s="42"/>
+      <c r="P30" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="34"/>
+      <c r="B31" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="2">
+        <v>6</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2">
+        <v>6</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="32">
+        <v>7</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7">
+        <v>5</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7">
+        <v>25</v>
+      </c>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7">
+        <v>30</v>
+      </c>
+      <c r="N32" s="7"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q32" s="42">
+        <v>2.5</v>
+      </c>
+      <c r="R32" s="7">
+        <v>30</v>
+      </c>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+    </row>
+    <row r="33" spans="1:20" ht="15.6">
+      <c r="A33" s="33"/>
+      <c r="B33" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2">
+        <v>5</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2">
+        <v>15</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2">
+        <v>20</v>
+      </c>
+      <c r="N33" s="17"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="2">
+        <v>20</v>
+      </c>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+    </row>
+    <row r="34" spans="1:20" ht="15.6">
+      <c r="A34" s="34"/>
+      <c r="B34" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2">
         <v>10</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="C12" s="4"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2">
+        <v>10</v>
+      </c>
+      <c r="N34" s="17"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="2">
+        <v>10</v>
+      </c>
+      <c r="S34" s="2"/>
+      <c r="T34" s="18"/>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="C36" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="C37" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="C38" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="C39" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="C40" s="12" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="45">
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="Q28:Q31"/>
+    <mergeCell ref="Q32:Q34"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="Q7:Q11"/>
+    <mergeCell ref="Q12:Q16"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="Q22:Q24"/>
+    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="O28:O31"/>
+    <mergeCell ref="O32:O34"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="O7:O11"/>
+    <mergeCell ref="O12:O16"/>
+    <mergeCell ref="O17:O20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="N2:T2"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:T3"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>